--- a/data/BelpexFilter.xlsx
+++ b/data/BelpexFilter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27612"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27618"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kuleuven-my.sharepoint.com/personal/emile_marien_student_kuleuven_be/Documents/Emile/Unief/MA 1 - Sem 2/2024_spring_P&amp;O_6/MA1SEM2_EnergyProject/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_D33309AFDC75E80E67D5DEF351D7E9DAD8964209" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{264171C5-A246-4BBB-8D14-75131A2D4970}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="11_D33309AFDC75E80E67D5DEF351D7E9DAD8964209" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCF9385B-DB98-4D24-8B96-3E164AFB6CD0}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,12 +99,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,11 +389,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D8760"/>
+  <dimension ref="A1:G8760"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -401,7 +402,7 @@
     <col min="2" max="2" width="28.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -409,19 +410,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:7">
       <c r="A2" s="4">
         <v>43101</v>
       </c>
       <c r="B2" s="2">
         <v>14.16</v>
       </c>
-      <c r="D2">
-        <f>COUNTIF(B2:B35000,"&lt;0")</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="4">
         <v>43101.041666666664</v>
       </c>
@@ -429,7 +426,7 @@
         <v>4.74</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:7">
       <c r="A4" s="4">
         <v>43101.083333333328</v>
       </c>
@@ -437,15 +434,23 @@
         <v>3.66</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>43101.125</v>
       </c>
       <c r="B5" s="2">
         <v>1.26</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="F5" s="5">
+        <f>AVERAGE(B2:B8760)</f>
+        <v>55.268145907067215</v>
+      </c>
+      <c r="G5">
+        <f>(78.56+61.52+61.17+47.7)/4</f>
+        <v>62.237499999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="4">
         <v>43101.166666666664</v>
       </c>
@@ -453,7 +458,7 @@
         <v>-20.100000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:7">
       <c r="A7" s="4">
         <v>43101.208333333328</v>
       </c>
@@ -461,7 +466,7 @@
         <v>-31.82</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:7">
       <c r="A8" s="4">
         <v>43101.25</v>
       </c>
@@ -469,15 +474,19 @@
         <v>-28.66</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:7">
       <c r="A9" s="4">
         <v>43101.291666666664</v>
       </c>
       <c r="B9" s="2">
         <v>-13.71</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="F9">
+        <f>G5/F5</f>
+        <v>1.1261007399208158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="4">
         <v>43101.333333333328</v>
       </c>
@@ -485,7 +494,7 @@
         <v>-19.329999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:7">
       <c r="A11" s="4">
         <v>43101.375</v>
       </c>
@@ -493,7 +502,7 @@
         <v>-15.78</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:7">
       <c r="A12" s="4">
         <v>43101.416666666664</v>
       </c>
@@ -501,7 +510,7 @@
         <v>-12.05</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:7">
       <c r="A13" s="4">
         <v>43101.458333333328</v>
       </c>
@@ -509,7 +518,7 @@
         <v>-0.42</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:7">
       <c r="A14" s="4">
         <v>43101.5</v>
       </c>
@@ -517,7 +526,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:7">
       <c r="A15" s="4">
         <v>43101.541666666664</v>
       </c>
@@ -525,7 +534,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:7">
       <c r="A16" s="4">
         <v>43101.583333333328</v>
       </c>
